--- a/docs/スプリント開始条件チェックリスト.xlsx
+++ b/docs/スプリント開始条件チェックリスト.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">チェックリスト!$A$1:$H$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$40</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1891,16 +1891,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="15"/>
   </si>
@@ -2021,6 +2011,10 @@
   </si>
   <si>
     <t>第1.1版</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリント開始条件チェックリスト©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5496,13 +5490,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI513"/>
+  <dimension ref="A1:AI514"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="77" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="23"/>
+    <col min="1" max="3" width="3.625" style="23"/>
+    <col min="4" max="4" width="3.625" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="3.625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="13.5" customHeight="1">
@@ -6338,7 +6334,7 @@
       <c r="P23" s="20"/>
       <c r="Q23" s="20"/>
       <c r="R23" s="26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
@@ -6414,7 +6410,7 @@
       <c r="P25" s="20"/>
       <c r="Q25" s="20"/>
       <c r="R25" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S25" s="20"/>
       <c r="T25" s="20"/>
@@ -6674,9 +6670,7 @@
       <c r="O32" s="20"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
-      <c r="R32" s="31" t="s">
-        <v>106</v>
-      </c>
+      <c r="R32" s="31"/>
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
@@ -6883,12 +6877,12 @@
     <row r="38" spans="1:35" ht="13.5" customHeight="1">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
       <c r="E38" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
@@ -6902,7 +6896,7 @@
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
       <c r="S38" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
@@ -6920,12 +6914,14 @@
       <c r="AH38" s="20"/>
       <c r="AI38" s="20"/>
     </row>
-    <row r="39" spans="1:35" ht="13.5" customHeight="1">
+    <row r="39" spans="1:35" ht="14.25" customHeight="1">
       <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
+      <c r="B39" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
@@ -6937,10 +6933,7 @@
       <c r="N39" s="20"/>
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="20"/>
+      <c r="S39" s="40"/>
       <c r="U39" s="20"/>
       <c r="V39" s="20"/>
       <c r="W39" s="20"/>
@@ -6957,7 +6950,43 @@
       <c r="AH39" s="20"/>
       <c r="AI39" s="20"/>
     </row>
-    <row r="40" spans="1:35" ht="13.5" customHeight="1"/>
+    <row r="40" spans="1:35" ht="9" customHeight="1">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="20"/>
+    </row>
     <row r="41" spans="1:35" ht="13.5" customHeight="1"/>
     <row r="42" spans="1:35" ht="13.5" customHeight="1"/>
     <row r="43" spans="1:35" ht="13.5" customHeight="1"/>
@@ -7431,6 +7460,7 @@
     <row r="511" ht="13.5" customHeight="1"/>
     <row r="512" ht="13.5" customHeight="1"/>
     <row r="513" ht="13.5" customHeight="1"/>
+    <row r="514" ht="13.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -7449,7 +7479,7 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7534,7 +7564,7 @@
         <v>102</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="87.75" customHeight="1">
@@ -7576,7 +7606,7 @@
         <v>102</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="87.75" customHeight="1">
@@ -7599,7 +7629,7 @@
         <v>103</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="87.75" customHeight="1">
@@ -7620,7 +7650,7 @@
         <v>103</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="87.75" customHeight="1">
@@ -7641,7 +7671,7 @@
         <v>103</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="87.75" customHeight="1">
@@ -7662,7 +7692,7 @@
         <v>103</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="87.75" customHeight="1">
@@ -7683,7 +7713,7 @@
         <v>60</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="87.75" customHeight="1">
@@ -7706,7 +7736,7 @@
         <v>104</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="87.75" customHeight="1">
@@ -7739,7 +7769,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>52</v>
@@ -7769,7 +7799,7 @@
         <v>104</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="87.75" customHeight="1">
@@ -7783,7 +7813,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>77</v>
@@ -7792,7 +7822,7 @@
         <v>105</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="87.75" customHeight="1">
@@ -7834,7 +7864,7 @@
         <v>104</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="87.75" customHeight="1">
@@ -7855,7 +7885,7 @@
         <v>105</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="87.75" customHeight="1">
@@ -7878,7 +7908,7 @@
         <v>105</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="87.75" customHeight="1">
@@ -7899,7 +7929,7 @@
         <v>105</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="87.75" customHeight="1">
@@ -7920,7 +7950,7 @@
         <v>105</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="87.75" customHeight="1">
@@ -7941,7 +7971,7 @@
         <v>105</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="87.75" customHeight="1">
@@ -7964,7 +7994,7 @@
         <v>62</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="87.75" customHeight="1">
@@ -7985,7 +8015,7 @@
         <v>62</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="87.75" customHeight="1">
@@ -8006,7 +8036,7 @@
         <v>62</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="87.75" customHeight="1">
@@ -8027,7 +8057,7 @@
         <v>62</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="87.75" customHeight="1">
@@ -8050,7 +8080,7 @@
         <v>61</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="87.75" customHeight="1">
@@ -8071,7 +8101,7 @@
         <v>105</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -8082,7 +8112,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="63" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="63" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="18" max="7" man="1"/>
   </rowBreaks>

--- a/docs/スプリント開始条件チェックリスト.xlsx
+++ b/docs/スプリント開始条件チェックリスト.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6E1AA5-815F-454A-8EE6-097309E84849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="23280" windowHeight="13200"/>
+    <workbookView xWindow="3360" yWindow="1425" windowWidth="21555" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
   <si>
     <t>スプリント開始条件チェックリスト</t>
     <phoneticPr fontId="1"/>
@@ -1891,17 +1892,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="15"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
     <t>2018年8月15日</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -2013,19 +2003,15 @@
     <t>第1.1版</t>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>スプリント開始条件チェックリスト©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2132,12 +2118,6 @@
       <sz val="18"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
@@ -2750,26 +2730,44 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2778,1486 +2776,1468 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -4327,7 +4307,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -4341,11 +4321,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -4358,20 +4338,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4439,50 +4419,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="48" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="47" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="46" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="49" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="47" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="50" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4499,572 +4479,575 @@
     </xf>
   </cellXfs>
   <cellStyles count="560">
-    <cellStyle name="20% - アクセント 1 2" xfId="7"/>
-    <cellStyle name="20% - アクセント 2 2" xfId="8"/>
-    <cellStyle name="20% - アクセント 3 2" xfId="9"/>
-    <cellStyle name="20% - アクセント 4 2" xfId="10"/>
-    <cellStyle name="20% - アクセント 5 2" xfId="11"/>
-    <cellStyle name="20% - アクセント 6 2" xfId="12"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="13"/>
-    <cellStyle name="40% - アクセント 2 2" xfId="14"/>
-    <cellStyle name="40% - アクセント 3 2" xfId="15"/>
-    <cellStyle name="40% - アクセント 4 2" xfId="16"/>
-    <cellStyle name="40% - アクセント 5 2" xfId="17"/>
-    <cellStyle name="40% - アクセント 6 2" xfId="18"/>
-    <cellStyle name="60% - アクセント 1 2" xfId="19"/>
-    <cellStyle name="60% - アクセント 2 2" xfId="20"/>
-    <cellStyle name="60% - アクセント 3 2" xfId="21"/>
-    <cellStyle name="60% - アクセント 4 2" xfId="22"/>
-    <cellStyle name="60% - アクセント 5 2" xfId="23"/>
-    <cellStyle name="60% - アクセント 6 2" xfId="24"/>
-    <cellStyle name="Calc Currency (0)" xfId="25"/>
-    <cellStyle name="Header1" xfId="26"/>
-    <cellStyle name="Header2" xfId="27"/>
-    <cellStyle name="Header2 2" xfId="28"/>
-    <cellStyle name="Header2 2 10" xfId="29"/>
-    <cellStyle name="Header2 2 10 2" xfId="30"/>
-    <cellStyle name="Header2 2 11" xfId="31"/>
-    <cellStyle name="Header2 2 11 2" xfId="32"/>
-    <cellStyle name="Header2 2 12" xfId="33"/>
-    <cellStyle name="Header2 2 12 2" xfId="34"/>
-    <cellStyle name="Header2 2 13" xfId="35"/>
-    <cellStyle name="Header2 2 2" xfId="36"/>
-    <cellStyle name="Header2 2 2 2" xfId="37"/>
-    <cellStyle name="Header2 2 2 2 2" xfId="38"/>
-    <cellStyle name="Header2 2 2 3" xfId="39"/>
-    <cellStyle name="Header2 2 2 3 2" xfId="40"/>
-    <cellStyle name="Header2 2 2 4" xfId="41"/>
-    <cellStyle name="Header2 2 2 4 2" xfId="42"/>
-    <cellStyle name="Header2 2 2 5" xfId="43"/>
-    <cellStyle name="Header2 2 2 5 2" xfId="44"/>
-    <cellStyle name="Header2 2 2 6" xfId="45"/>
-    <cellStyle name="Header2 2 2 6 2" xfId="46"/>
-    <cellStyle name="Header2 2 2 7" xfId="47"/>
-    <cellStyle name="Header2 2 3" xfId="48"/>
-    <cellStyle name="Header2 2 4" xfId="49"/>
-    <cellStyle name="Header2 2 4 2" xfId="50"/>
-    <cellStyle name="Header2 2 4 2 2" xfId="51"/>
-    <cellStyle name="Header2 2 4 3" xfId="52"/>
-    <cellStyle name="Header2 2 4 3 2" xfId="53"/>
-    <cellStyle name="Header2 2 4 4" xfId="54"/>
-    <cellStyle name="Header2 2 4 4 2" xfId="55"/>
-    <cellStyle name="Header2 2 4 5" xfId="56"/>
-    <cellStyle name="Header2 2 4 5 2" xfId="57"/>
-    <cellStyle name="Header2 2 4 6" xfId="58"/>
-    <cellStyle name="Header2 2 4 6 2" xfId="59"/>
-    <cellStyle name="Header2 2 4 7" xfId="60"/>
-    <cellStyle name="Header2 2 5" xfId="61"/>
-    <cellStyle name="Header2 2 5 2" xfId="62"/>
-    <cellStyle name="Header2 2 5 2 2" xfId="63"/>
-    <cellStyle name="Header2 2 5 3" xfId="64"/>
-    <cellStyle name="Header2 2 5 3 2" xfId="65"/>
-    <cellStyle name="Header2 2 5 4" xfId="66"/>
-    <cellStyle name="Header2 2 5 4 2" xfId="67"/>
-    <cellStyle name="Header2 2 5 5" xfId="68"/>
-    <cellStyle name="Header2 2 5 5 2" xfId="69"/>
-    <cellStyle name="Header2 2 5 6" xfId="70"/>
-    <cellStyle name="Header2 2 5 6 2" xfId="71"/>
-    <cellStyle name="Header2 2 5 7" xfId="72"/>
-    <cellStyle name="Header2 2 6" xfId="73"/>
-    <cellStyle name="Header2 2 6 2" xfId="74"/>
-    <cellStyle name="Header2 2 6 2 2" xfId="75"/>
-    <cellStyle name="Header2 2 6 3" xfId="76"/>
-    <cellStyle name="Header2 2 6 3 2" xfId="77"/>
-    <cellStyle name="Header2 2 6 4" xfId="78"/>
-    <cellStyle name="Header2 2 6 4 2" xfId="79"/>
-    <cellStyle name="Header2 2 6 5" xfId="80"/>
-    <cellStyle name="Header2 2 6 5 2" xfId="81"/>
-    <cellStyle name="Header2 2 6 6" xfId="82"/>
-    <cellStyle name="Header2 2 6 6 2" xfId="83"/>
-    <cellStyle name="Header2 2 6 7" xfId="84"/>
-    <cellStyle name="Header2 2 7" xfId="85"/>
-    <cellStyle name="Header2 2 7 2" xfId="86"/>
-    <cellStyle name="Header2 2 7 2 2" xfId="87"/>
-    <cellStyle name="Header2 2 7 3" xfId="88"/>
-    <cellStyle name="Header2 2 7 3 2" xfId="89"/>
-    <cellStyle name="Header2 2 7 4" xfId="90"/>
-    <cellStyle name="Header2 2 7 4 2" xfId="91"/>
-    <cellStyle name="Header2 2 7 5" xfId="92"/>
-    <cellStyle name="Header2 2 7 5 2" xfId="93"/>
-    <cellStyle name="Header2 2 7 6" xfId="94"/>
-    <cellStyle name="Header2 2 7 6 2" xfId="95"/>
-    <cellStyle name="Header2 2 7 7" xfId="96"/>
-    <cellStyle name="Header2 2 8" xfId="97"/>
-    <cellStyle name="Header2 2 8 2" xfId="98"/>
-    <cellStyle name="Header2 2 9" xfId="99"/>
-    <cellStyle name="Header2 2 9 2" xfId="100"/>
-    <cellStyle name="Header2 3" xfId="101"/>
-    <cellStyle name="Header2 3 10" xfId="102"/>
-    <cellStyle name="Header2 3 10 2" xfId="103"/>
-    <cellStyle name="Header2 3 11" xfId="104"/>
-    <cellStyle name="Header2 3 11 2" xfId="105"/>
-    <cellStyle name="Header2 3 12" xfId="106"/>
-    <cellStyle name="Header2 3 2" xfId="107"/>
-    <cellStyle name="Header2 3 2 2" xfId="108"/>
-    <cellStyle name="Header2 3 2 2 2" xfId="109"/>
-    <cellStyle name="Header2 3 2 3" xfId="110"/>
-    <cellStyle name="Header2 3 2 3 2" xfId="111"/>
-    <cellStyle name="Header2 3 2 4" xfId="112"/>
-    <cellStyle name="Header2 3 2 4 2" xfId="113"/>
-    <cellStyle name="Header2 3 2 5" xfId="114"/>
-    <cellStyle name="Header2 3 2 5 2" xfId="115"/>
-    <cellStyle name="Header2 3 2 6" xfId="116"/>
-    <cellStyle name="Header2 3 2 6 2" xfId="117"/>
-    <cellStyle name="Header2 3 2 7" xfId="118"/>
-    <cellStyle name="Header2 3 3" xfId="119"/>
-    <cellStyle name="Header2 3 3 2" xfId="120"/>
-    <cellStyle name="Header2 3 3 2 2" xfId="121"/>
-    <cellStyle name="Header2 3 3 3" xfId="122"/>
-    <cellStyle name="Header2 3 3 3 2" xfId="123"/>
-    <cellStyle name="Header2 3 3 4" xfId="124"/>
-    <cellStyle name="Header2 3 3 4 2" xfId="125"/>
-    <cellStyle name="Header2 3 3 5" xfId="126"/>
-    <cellStyle name="Header2 3 3 5 2" xfId="127"/>
-    <cellStyle name="Header2 3 3 6" xfId="128"/>
-    <cellStyle name="Header2 3 3 6 2" xfId="129"/>
-    <cellStyle name="Header2 3 3 7" xfId="130"/>
-    <cellStyle name="Header2 3 4" xfId="131"/>
-    <cellStyle name="Header2 3 4 2" xfId="132"/>
-    <cellStyle name="Header2 3 4 2 2" xfId="133"/>
-    <cellStyle name="Header2 3 4 3" xfId="134"/>
-    <cellStyle name="Header2 3 4 3 2" xfId="135"/>
-    <cellStyle name="Header2 3 4 4" xfId="136"/>
-    <cellStyle name="Header2 3 4 4 2" xfId="137"/>
-    <cellStyle name="Header2 3 4 5" xfId="138"/>
-    <cellStyle name="Header2 3 4 5 2" xfId="139"/>
-    <cellStyle name="Header2 3 4 6" xfId="140"/>
-    <cellStyle name="Header2 3 4 6 2" xfId="141"/>
-    <cellStyle name="Header2 3 4 7" xfId="142"/>
-    <cellStyle name="Header2 3 5" xfId="143"/>
-    <cellStyle name="Header2 3 5 2" xfId="144"/>
-    <cellStyle name="Header2 3 5 2 2" xfId="145"/>
-    <cellStyle name="Header2 3 5 3" xfId="146"/>
-    <cellStyle name="Header2 3 5 3 2" xfId="147"/>
-    <cellStyle name="Header2 3 5 4" xfId="148"/>
-    <cellStyle name="Header2 3 5 4 2" xfId="149"/>
-    <cellStyle name="Header2 3 5 5" xfId="150"/>
-    <cellStyle name="Header2 3 5 5 2" xfId="151"/>
-    <cellStyle name="Header2 3 5 6" xfId="152"/>
-    <cellStyle name="Header2 3 5 6 2" xfId="153"/>
-    <cellStyle name="Header2 3 5 7" xfId="154"/>
-    <cellStyle name="Header2 3 6" xfId="155"/>
-    <cellStyle name="Header2 3 6 2" xfId="156"/>
-    <cellStyle name="Header2 3 6 2 2" xfId="157"/>
-    <cellStyle name="Header2 3 6 3" xfId="158"/>
-    <cellStyle name="Header2 3 6 3 2" xfId="159"/>
-    <cellStyle name="Header2 3 6 4" xfId="160"/>
-    <cellStyle name="Header2 3 6 4 2" xfId="161"/>
-    <cellStyle name="Header2 3 6 5" xfId="162"/>
-    <cellStyle name="Header2 3 6 5 2" xfId="163"/>
-    <cellStyle name="Header2 3 6 6" xfId="164"/>
-    <cellStyle name="Header2 3 6 6 2" xfId="165"/>
-    <cellStyle name="Header2 3 6 7" xfId="166"/>
-    <cellStyle name="Header2 3 7" xfId="167"/>
-    <cellStyle name="Header2 3 7 2" xfId="168"/>
-    <cellStyle name="Header2 3 8" xfId="169"/>
-    <cellStyle name="Header2 3 8 2" xfId="170"/>
-    <cellStyle name="Header2 3 9" xfId="171"/>
-    <cellStyle name="Header2 3 9 2" xfId="172"/>
-    <cellStyle name="Normal_#18-Internet" xfId="173"/>
-    <cellStyle name="アクセント 1 2" xfId="174"/>
-    <cellStyle name="アクセント 2 2" xfId="175"/>
-    <cellStyle name="アクセント 3 2" xfId="176"/>
-    <cellStyle name="アクセント 4 2" xfId="177"/>
-    <cellStyle name="アクセント 5 2" xfId="178"/>
-    <cellStyle name="アクセント 6 2" xfId="179"/>
-    <cellStyle name="タイトル 2" xfId="180"/>
-    <cellStyle name="チェック セル 2" xfId="181"/>
-    <cellStyle name="どちらでもない 2" xfId="182"/>
-    <cellStyle name="パーセント 2" xfId="183"/>
-    <cellStyle name="ハイパーリンク 2" xfId="6"/>
-    <cellStyle name="メモ 2" xfId="184"/>
-    <cellStyle name="メモ 2 2" xfId="185"/>
-    <cellStyle name="メモ 2 2 2" xfId="186"/>
-    <cellStyle name="メモ 2 2 2 2" xfId="187"/>
-    <cellStyle name="メモ 2 2 2 2 2" xfId="188"/>
-    <cellStyle name="メモ 2 2 2 3" xfId="189"/>
-    <cellStyle name="メモ 2 2 2 3 2" xfId="190"/>
-    <cellStyle name="メモ 2 2 2 4" xfId="191"/>
-    <cellStyle name="メモ 2 2 2 4 2" xfId="192"/>
-    <cellStyle name="メモ 2 2 2 5" xfId="193"/>
-    <cellStyle name="メモ 2 2 2 5 2" xfId="194"/>
-    <cellStyle name="メモ 2 2 2 6" xfId="195"/>
-    <cellStyle name="メモ 2 2 2 6 2" xfId="196"/>
-    <cellStyle name="メモ 2 2 2 7" xfId="197"/>
-    <cellStyle name="メモ 2 2 3" xfId="198"/>
-    <cellStyle name="メモ 2 2 3 2" xfId="199"/>
-    <cellStyle name="メモ 2 2 3 2 2" xfId="200"/>
-    <cellStyle name="メモ 2 2 3 3" xfId="201"/>
-    <cellStyle name="メモ 2 2 3 3 2" xfId="202"/>
-    <cellStyle name="メモ 2 2 3 4" xfId="203"/>
-    <cellStyle name="メモ 2 2 3 4 2" xfId="204"/>
-    <cellStyle name="メモ 2 2 3 5" xfId="205"/>
-    <cellStyle name="メモ 2 2 3 5 2" xfId="206"/>
-    <cellStyle name="メモ 2 2 3 6" xfId="207"/>
-    <cellStyle name="メモ 2 2 3 6 2" xfId="208"/>
-    <cellStyle name="メモ 2 2 3 7" xfId="209"/>
-    <cellStyle name="メモ 2 2 4" xfId="210"/>
-    <cellStyle name="メモ 2 2 4 2" xfId="211"/>
-    <cellStyle name="メモ 2 2 4 2 2" xfId="212"/>
-    <cellStyle name="メモ 2 2 4 3" xfId="213"/>
-    <cellStyle name="メモ 2 2 4 3 2" xfId="214"/>
-    <cellStyle name="メモ 2 2 4 4" xfId="215"/>
-    <cellStyle name="メモ 2 2 4 4 2" xfId="216"/>
-    <cellStyle name="メモ 2 2 4 5" xfId="217"/>
-    <cellStyle name="メモ 2 2 4 5 2" xfId="218"/>
-    <cellStyle name="メモ 2 2 4 6" xfId="219"/>
-    <cellStyle name="メモ 2 2 4 6 2" xfId="220"/>
-    <cellStyle name="メモ 2 2 4 7" xfId="221"/>
-    <cellStyle name="メモ 2 2 5" xfId="222"/>
-    <cellStyle name="メモ 2 2 5 2" xfId="223"/>
-    <cellStyle name="メモ 2 2 5 2 2" xfId="224"/>
-    <cellStyle name="メモ 2 2 5 3" xfId="225"/>
-    <cellStyle name="メモ 2 2 5 3 2" xfId="226"/>
-    <cellStyle name="メモ 2 2 5 4" xfId="227"/>
-    <cellStyle name="メモ 2 2 5 4 2" xfId="228"/>
-    <cellStyle name="メモ 2 2 5 5" xfId="229"/>
-    <cellStyle name="メモ 2 2 5 5 2" xfId="230"/>
-    <cellStyle name="メモ 2 2 5 6" xfId="231"/>
-    <cellStyle name="メモ 2 2 5 6 2" xfId="232"/>
-    <cellStyle name="メモ 2 2 5 7" xfId="233"/>
-    <cellStyle name="メモ 2 2 6" xfId="234"/>
-    <cellStyle name="メモ 2 2 6 2" xfId="235"/>
-    <cellStyle name="メモ 2 2 6 2 2" xfId="236"/>
-    <cellStyle name="メモ 2 2 6 3" xfId="237"/>
-    <cellStyle name="メモ 2 2 6 3 2" xfId="238"/>
-    <cellStyle name="メモ 2 2 6 4" xfId="239"/>
-    <cellStyle name="メモ 2 2 6 4 2" xfId="240"/>
-    <cellStyle name="メモ 2 2 6 5" xfId="241"/>
-    <cellStyle name="メモ 2 2 6 5 2" xfId="242"/>
-    <cellStyle name="メモ 2 2 6 6" xfId="243"/>
-    <cellStyle name="メモ 2 2 7" xfId="244"/>
-    <cellStyle name="メモ 2 2 7 2" xfId="245"/>
-    <cellStyle name="メモ 2 2 8" xfId="246"/>
-    <cellStyle name="メモ 2 3" xfId="247"/>
-    <cellStyle name="リンク セル 2" xfId="248"/>
-    <cellStyle name="悪い 2" xfId="249"/>
-    <cellStyle name="計算 2" xfId="250"/>
-    <cellStyle name="計算 2 2" xfId="251"/>
-    <cellStyle name="計算 2 2 2" xfId="252"/>
-    <cellStyle name="計算 2 2 2 2" xfId="253"/>
-    <cellStyle name="計算 2 2 2 2 2" xfId="254"/>
-    <cellStyle name="計算 2 2 2 3" xfId="255"/>
-    <cellStyle name="計算 2 2 2 3 2" xfId="256"/>
-    <cellStyle name="計算 2 2 2 4" xfId="257"/>
-    <cellStyle name="計算 2 2 2 4 2" xfId="258"/>
-    <cellStyle name="計算 2 2 2 5" xfId="259"/>
-    <cellStyle name="計算 2 2 2 5 2" xfId="260"/>
-    <cellStyle name="計算 2 2 2 6" xfId="261"/>
-    <cellStyle name="計算 2 2 2 6 2" xfId="262"/>
-    <cellStyle name="計算 2 2 2 7" xfId="263"/>
-    <cellStyle name="計算 2 2 3" xfId="264"/>
-    <cellStyle name="計算 2 2 3 2" xfId="265"/>
-    <cellStyle name="計算 2 2 3 2 2" xfId="266"/>
-    <cellStyle name="計算 2 2 3 3" xfId="267"/>
-    <cellStyle name="計算 2 2 3 3 2" xfId="268"/>
-    <cellStyle name="計算 2 2 3 4" xfId="269"/>
-    <cellStyle name="計算 2 2 3 4 2" xfId="270"/>
-    <cellStyle name="計算 2 2 3 5" xfId="271"/>
-    <cellStyle name="計算 2 2 3 5 2" xfId="272"/>
-    <cellStyle name="計算 2 2 3 6" xfId="273"/>
-    <cellStyle name="計算 2 2 3 6 2" xfId="274"/>
-    <cellStyle name="計算 2 2 3 7" xfId="275"/>
-    <cellStyle name="計算 2 2 4" xfId="276"/>
-    <cellStyle name="計算 2 2 4 2" xfId="277"/>
-    <cellStyle name="計算 2 2 4 2 2" xfId="278"/>
-    <cellStyle name="計算 2 2 4 3" xfId="279"/>
-    <cellStyle name="計算 2 2 4 3 2" xfId="280"/>
-    <cellStyle name="計算 2 2 4 4" xfId="281"/>
-    <cellStyle name="計算 2 2 4 4 2" xfId="282"/>
-    <cellStyle name="計算 2 2 4 5" xfId="283"/>
-    <cellStyle name="計算 2 2 4 5 2" xfId="284"/>
-    <cellStyle name="計算 2 2 4 6" xfId="285"/>
-    <cellStyle name="計算 2 2 4 6 2" xfId="286"/>
-    <cellStyle name="計算 2 2 4 7" xfId="287"/>
-    <cellStyle name="計算 2 2 5" xfId="288"/>
-    <cellStyle name="計算 2 2 5 2" xfId="289"/>
-    <cellStyle name="計算 2 2 5 2 2" xfId="290"/>
-    <cellStyle name="計算 2 2 5 3" xfId="291"/>
-    <cellStyle name="計算 2 2 5 3 2" xfId="292"/>
-    <cellStyle name="計算 2 2 5 4" xfId="293"/>
-    <cellStyle name="計算 2 2 5 4 2" xfId="294"/>
-    <cellStyle name="計算 2 2 5 5" xfId="295"/>
-    <cellStyle name="計算 2 2 5 5 2" xfId="296"/>
-    <cellStyle name="計算 2 2 5 6" xfId="297"/>
-    <cellStyle name="計算 2 2 5 6 2" xfId="298"/>
-    <cellStyle name="計算 2 2 5 7" xfId="299"/>
-    <cellStyle name="計算 2 2 6" xfId="300"/>
-    <cellStyle name="計算 2 2 6 2" xfId="301"/>
-    <cellStyle name="計算 2 2 6 2 2" xfId="302"/>
-    <cellStyle name="計算 2 2 6 3" xfId="303"/>
-    <cellStyle name="計算 2 2 6 3 2" xfId="304"/>
-    <cellStyle name="計算 2 2 6 4" xfId="305"/>
-    <cellStyle name="計算 2 2 6 4 2" xfId="306"/>
-    <cellStyle name="計算 2 2 6 5" xfId="307"/>
-    <cellStyle name="計算 2 2 6 5 2" xfId="308"/>
-    <cellStyle name="計算 2 2 6 6" xfId="309"/>
-    <cellStyle name="計算 2 2 7" xfId="310"/>
-    <cellStyle name="計算 2 2 7 2" xfId="311"/>
-    <cellStyle name="計算 2 2 8" xfId="312"/>
-    <cellStyle name="計算 2 3" xfId="313"/>
-    <cellStyle name="警告文 2" xfId="314"/>
-    <cellStyle name="見出し 1 2" xfId="315"/>
-    <cellStyle name="見出し 2 2" xfId="316"/>
-    <cellStyle name="見出し 3 2" xfId="317"/>
-    <cellStyle name="見出し 4 2" xfId="318"/>
-    <cellStyle name="集計 2" xfId="319"/>
-    <cellStyle name="集計 2 2" xfId="320"/>
-    <cellStyle name="集計 2 2 2" xfId="321"/>
-    <cellStyle name="集計 2 2 2 2" xfId="322"/>
-    <cellStyle name="集計 2 2 2 2 2" xfId="323"/>
-    <cellStyle name="集計 2 2 2 3" xfId="324"/>
-    <cellStyle name="集計 2 2 2 3 2" xfId="325"/>
-    <cellStyle name="集計 2 2 2 4" xfId="326"/>
-    <cellStyle name="集計 2 2 2 4 2" xfId="327"/>
-    <cellStyle name="集計 2 2 2 5" xfId="328"/>
-    <cellStyle name="集計 2 2 2 5 2" xfId="329"/>
-    <cellStyle name="集計 2 2 2 6" xfId="330"/>
-    <cellStyle name="集計 2 2 2 6 2" xfId="331"/>
-    <cellStyle name="集計 2 2 2 7" xfId="332"/>
-    <cellStyle name="集計 2 2 3" xfId="333"/>
-    <cellStyle name="集計 2 2 3 2" xfId="334"/>
-    <cellStyle name="集計 2 2 3 2 2" xfId="335"/>
-    <cellStyle name="集計 2 2 3 3" xfId="336"/>
-    <cellStyle name="集計 2 2 3 3 2" xfId="337"/>
-    <cellStyle name="集計 2 2 3 4" xfId="338"/>
-    <cellStyle name="集計 2 2 3 4 2" xfId="339"/>
-    <cellStyle name="集計 2 2 3 5" xfId="340"/>
-    <cellStyle name="集計 2 2 3 5 2" xfId="341"/>
-    <cellStyle name="集計 2 2 3 6" xfId="342"/>
-    <cellStyle name="集計 2 2 3 6 2" xfId="343"/>
-    <cellStyle name="集計 2 2 3 7" xfId="344"/>
-    <cellStyle name="集計 2 2 4" xfId="345"/>
-    <cellStyle name="集計 2 2 4 2" xfId="346"/>
-    <cellStyle name="集計 2 2 4 2 2" xfId="347"/>
-    <cellStyle name="集計 2 2 4 3" xfId="348"/>
-    <cellStyle name="集計 2 2 4 3 2" xfId="349"/>
-    <cellStyle name="集計 2 2 4 4" xfId="350"/>
-    <cellStyle name="集計 2 2 4 4 2" xfId="351"/>
-    <cellStyle name="集計 2 2 4 5" xfId="352"/>
-    <cellStyle name="集計 2 2 4 5 2" xfId="353"/>
-    <cellStyle name="集計 2 2 4 6" xfId="354"/>
-    <cellStyle name="集計 2 2 4 6 2" xfId="355"/>
-    <cellStyle name="集計 2 2 4 7" xfId="356"/>
-    <cellStyle name="集計 2 2 5" xfId="357"/>
-    <cellStyle name="集計 2 2 5 2" xfId="358"/>
-    <cellStyle name="集計 2 2 5 2 2" xfId="359"/>
-    <cellStyle name="集計 2 2 5 3" xfId="360"/>
-    <cellStyle name="集計 2 2 5 3 2" xfId="361"/>
-    <cellStyle name="集計 2 2 5 4" xfId="362"/>
-    <cellStyle name="集計 2 2 5 4 2" xfId="363"/>
-    <cellStyle name="集計 2 2 5 5" xfId="364"/>
-    <cellStyle name="集計 2 2 5 5 2" xfId="365"/>
-    <cellStyle name="集計 2 2 5 6" xfId="366"/>
-    <cellStyle name="集計 2 2 6" xfId="367"/>
-    <cellStyle name="集計 2 2 6 2" xfId="368"/>
-    <cellStyle name="集計 2 2 6 2 2" xfId="369"/>
-    <cellStyle name="集計 2 2 6 3" xfId="370"/>
-    <cellStyle name="集計 2 2 6 3 2" xfId="371"/>
-    <cellStyle name="集計 2 2 6 4" xfId="372"/>
-    <cellStyle name="集計 2 2 6 4 2" xfId="373"/>
-    <cellStyle name="集計 2 2 6 5" xfId="374"/>
-    <cellStyle name="集計 2 2 6 5 2" xfId="375"/>
-    <cellStyle name="集計 2 2 6 6" xfId="376"/>
-    <cellStyle name="集計 2 2 6 6 2" xfId="377"/>
-    <cellStyle name="集計 2 2 6 7" xfId="378"/>
-    <cellStyle name="集計 2 2 7" xfId="379"/>
-    <cellStyle name="集計 2 2 7 2" xfId="380"/>
-    <cellStyle name="集計 2 2 8" xfId="381"/>
-    <cellStyle name="集計 2 3" xfId="382"/>
-    <cellStyle name="出力 2" xfId="383"/>
-    <cellStyle name="出力 2 2" xfId="384"/>
-    <cellStyle name="出力 2 2 2" xfId="385"/>
-    <cellStyle name="出力 2 2 2 2" xfId="386"/>
-    <cellStyle name="出力 2 2 2 2 2" xfId="387"/>
-    <cellStyle name="出力 2 2 2 3" xfId="388"/>
-    <cellStyle name="出力 2 2 2 3 2" xfId="389"/>
-    <cellStyle name="出力 2 2 2 4" xfId="390"/>
-    <cellStyle name="出力 2 2 2 4 2" xfId="391"/>
-    <cellStyle name="出力 2 2 2 5" xfId="392"/>
-    <cellStyle name="出力 2 2 2 5 2" xfId="393"/>
-    <cellStyle name="出力 2 2 2 6" xfId="394"/>
-    <cellStyle name="出力 2 2 2 6 2" xfId="395"/>
-    <cellStyle name="出力 2 2 2 7" xfId="396"/>
-    <cellStyle name="出力 2 2 3" xfId="397"/>
-    <cellStyle name="出力 2 2 3 2" xfId="398"/>
-    <cellStyle name="出力 2 2 3 2 2" xfId="399"/>
-    <cellStyle name="出力 2 2 3 3" xfId="400"/>
-    <cellStyle name="出力 2 2 3 3 2" xfId="401"/>
-    <cellStyle name="出力 2 2 3 4" xfId="402"/>
-    <cellStyle name="出力 2 2 3 4 2" xfId="403"/>
-    <cellStyle name="出力 2 2 3 5" xfId="404"/>
-    <cellStyle name="出力 2 2 3 5 2" xfId="405"/>
-    <cellStyle name="出力 2 2 3 6" xfId="406"/>
-    <cellStyle name="出力 2 2 3 6 2" xfId="407"/>
-    <cellStyle name="出力 2 2 3 7" xfId="408"/>
-    <cellStyle name="出力 2 2 4" xfId="409"/>
-    <cellStyle name="出力 2 2 4 2" xfId="410"/>
-    <cellStyle name="出力 2 2 4 2 2" xfId="411"/>
-    <cellStyle name="出力 2 2 4 3" xfId="412"/>
-    <cellStyle name="出力 2 2 4 3 2" xfId="413"/>
-    <cellStyle name="出力 2 2 4 4" xfId="414"/>
-    <cellStyle name="出力 2 2 4 4 2" xfId="415"/>
-    <cellStyle name="出力 2 2 4 5" xfId="416"/>
-    <cellStyle name="出力 2 2 4 5 2" xfId="417"/>
-    <cellStyle name="出力 2 2 4 6" xfId="418"/>
-    <cellStyle name="出力 2 2 4 6 2" xfId="419"/>
-    <cellStyle name="出力 2 2 4 7" xfId="420"/>
-    <cellStyle name="出力 2 2 5" xfId="421"/>
-    <cellStyle name="出力 2 2 5 2" xfId="422"/>
-    <cellStyle name="出力 2 2 5 2 2" xfId="423"/>
-    <cellStyle name="出力 2 2 5 3" xfId="424"/>
-    <cellStyle name="出力 2 2 5 3 2" xfId="425"/>
-    <cellStyle name="出力 2 2 5 4" xfId="426"/>
-    <cellStyle name="出力 2 2 5 4 2" xfId="427"/>
-    <cellStyle name="出力 2 2 5 5" xfId="428"/>
-    <cellStyle name="出力 2 2 5 5 2" xfId="429"/>
-    <cellStyle name="出力 2 2 5 6" xfId="430"/>
-    <cellStyle name="出力 2 2 6" xfId="431"/>
-    <cellStyle name="出力 2 2 6 2" xfId="432"/>
-    <cellStyle name="出力 2 2 6 2 2" xfId="433"/>
-    <cellStyle name="出力 2 2 6 3" xfId="434"/>
-    <cellStyle name="出力 2 2 6 3 2" xfId="435"/>
-    <cellStyle name="出力 2 2 6 4" xfId="436"/>
-    <cellStyle name="出力 2 2 6 4 2" xfId="437"/>
-    <cellStyle name="出力 2 2 6 5" xfId="438"/>
-    <cellStyle name="出力 2 2 6 5 2" xfId="439"/>
-    <cellStyle name="出力 2 2 6 6" xfId="440"/>
-    <cellStyle name="出力 2 2 6 6 2" xfId="441"/>
-    <cellStyle name="出力 2 2 6 7" xfId="442"/>
-    <cellStyle name="出力 2 2 7" xfId="443"/>
-    <cellStyle name="出力 2 2 7 2" xfId="444"/>
-    <cellStyle name="出力 2 2 8" xfId="445"/>
-    <cellStyle name="出力 2 3" xfId="446"/>
-    <cellStyle name="説明文 2" xfId="447"/>
-    <cellStyle name="入力 2" xfId="448"/>
-    <cellStyle name="入力 2 2" xfId="449"/>
-    <cellStyle name="入力 2 2 2" xfId="450"/>
-    <cellStyle name="入力 2 2 2 2" xfId="451"/>
-    <cellStyle name="入力 2 2 2 2 2" xfId="452"/>
-    <cellStyle name="入力 2 2 2 3" xfId="453"/>
-    <cellStyle name="入力 2 2 2 3 2" xfId="454"/>
-    <cellStyle name="入力 2 2 2 4" xfId="455"/>
-    <cellStyle name="入力 2 2 2 4 2" xfId="456"/>
-    <cellStyle name="入力 2 2 2 5" xfId="457"/>
-    <cellStyle name="入力 2 2 2 5 2" xfId="458"/>
-    <cellStyle name="入力 2 2 2 6" xfId="459"/>
-    <cellStyle name="入力 2 2 2 6 2" xfId="460"/>
-    <cellStyle name="入力 2 2 2 7" xfId="461"/>
-    <cellStyle name="入力 2 2 3" xfId="462"/>
-    <cellStyle name="入力 2 2 3 2" xfId="463"/>
-    <cellStyle name="入力 2 2 3 2 2" xfId="464"/>
-    <cellStyle name="入力 2 2 3 3" xfId="465"/>
-    <cellStyle name="入力 2 2 3 3 2" xfId="466"/>
-    <cellStyle name="入力 2 2 3 4" xfId="467"/>
-    <cellStyle name="入力 2 2 3 4 2" xfId="468"/>
-    <cellStyle name="入力 2 2 3 5" xfId="469"/>
-    <cellStyle name="入力 2 2 3 5 2" xfId="470"/>
-    <cellStyle name="入力 2 2 3 6" xfId="471"/>
-    <cellStyle name="入力 2 2 3 6 2" xfId="472"/>
-    <cellStyle name="入力 2 2 3 7" xfId="473"/>
-    <cellStyle name="入力 2 2 4" xfId="474"/>
-    <cellStyle name="入力 2 2 4 2" xfId="475"/>
-    <cellStyle name="入力 2 2 4 2 2" xfId="476"/>
-    <cellStyle name="入力 2 2 4 3" xfId="477"/>
-    <cellStyle name="入力 2 2 4 3 2" xfId="478"/>
-    <cellStyle name="入力 2 2 4 4" xfId="479"/>
-    <cellStyle name="入力 2 2 4 4 2" xfId="480"/>
-    <cellStyle name="入力 2 2 4 5" xfId="481"/>
-    <cellStyle name="入力 2 2 4 5 2" xfId="482"/>
-    <cellStyle name="入力 2 2 4 6" xfId="483"/>
-    <cellStyle name="入力 2 2 4 6 2" xfId="484"/>
-    <cellStyle name="入力 2 2 4 7" xfId="485"/>
-    <cellStyle name="入力 2 2 5" xfId="486"/>
-    <cellStyle name="入力 2 2 5 2" xfId="487"/>
-    <cellStyle name="入力 2 2 5 2 2" xfId="488"/>
-    <cellStyle name="入力 2 2 5 3" xfId="489"/>
-    <cellStyle name="入力 2 2 5 3 2" xfId="490"/>
-    <cellStyle name="入力 2 2 5 4" xfId="491"/>
-    <cellStyle name="入力 2 2 5 4 2" xfId="492"/>
-    <cellStyle name="入力 2 2 5 5" xfId="493"/>
-    <cellStyle name="入力 2 2 5 5 2" xfId="494"/>
-    <cellStyle name="入力 2 2 5 6" xfId="495"/>
-    <cellStyle name="入力 2 2 5 6 2" xfId="496"/>
-    <cellStyle name="入力 2 2 5 7" xfId="497"/>
-    <cellStyle name="入力 2 2 6" xfId="498"/>
-    <cellStyle name="入力 2 2 6 2" xfId="499"/>
-    <cellStyle name="入力 2 2 6 2 2" xfId="500"/>
-    <cellStyle name="入力 2 2 6 3" xfId="501"/>
-    <cellStyle name="入力 2 2 6 3 2" xfId="502"/>
-    <cellStyle name="入力 2 2 6 4" xfId="503"/>
-    <cellStyle name="入力 2 2 6 4 2" xfId="504"/>
-    <cellStyle name="入力 2 2 6 5" xfId="505"/>
-    <cellStyle name="入力 2 2 6 5 2" xfId="506"/>
-    <cellStyle name="入力 2 2 6 6" xfId="507"/>
-    <cellStyle name="入力 2 2 7" xfId="508"/>
-    <cellStyle name="入力 2 2 7 2" xfId="509"/>
-    <cellStyle name="入力 2 2 8" xfId="510"/>
-    <cellStyle name="入力 2 3" xfId="511"/>
+    <cellStyle name="20% - アクセント 1 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - アクセント 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - アクセント 3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - アクセント 4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - アクセント 5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - アクセント 6 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - アクセント 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - アクセント 3 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - アクセント 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - アクセント 5 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - アクセント 6 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - アクセント 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - アクセント 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - アクセント 3 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - アクセント 4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - アクセント 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - アクセント 6 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Calc Currency (0)" xfId="25" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Header1" xfId="26" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Header2" xfId="27" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Header2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Header2 2 10" xfId="29" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Header2 2 10 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Header2 2 11" xfId="31" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Header2 2 11 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Header2 2 12" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Header2 2 12 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Header2 2 13" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Header2 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Header2 2 2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Header2 2 2 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Header2 2 2 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Header2 2 2 3 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Header2 2 2 4" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Header2 2 2 4 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Header2 2 2 5" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Header2 2 2 5 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Header2 2 2 6" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Header2 2 2 6 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Header2 2 2 7" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Header2 2 3" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Header2 2 4" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Header2 2 4 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Header2 2 4 2 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Header2 2 4 3" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Header2 2 4 3 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Header2 2 4 4" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Header2 2 4 4 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Header2 2 4 5" xfId="56" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Header2 2 4 5 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Header2 2 4 6" xfId="58" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Header2 2 4 6 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Header2 2 4 7" xfId="60" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header2 2 5" xfId="61" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Header2 2 5 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Header2 2 5 2 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Header2 2 5 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Header2 2 5 3 2" xfId="65" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Header2 2 5 4" xfId="66" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Header2 2 5 4 2" xfId="67" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Header2 2 5 5" xfId="68" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Header2 2 5 5 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Header2 2 5 6" xfId="70" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Header2 2 5 6 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Header2 2 5 7" xfId="72" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Header2 2 6" xfId="73" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Header2 2 6 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Header2 2 6 2 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Header2 2 6 3" xfId="76" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Header2 2 6 3 2" xfId="77" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Header2 2 6 4" xfId="78" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Header2 2 6 4 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Header2 2 6 5" xfId="80" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Header2 2 6 5 2" xfId="81" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Header2 2 6 6" xfId="82" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Header2 2 6 6 2" xfId="83" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Header2 2 6 7" xfId="84" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Header2 2 7" xfId="85" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Header2 2 7 2" xfId="86" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Header2 2 7 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Header2 2 7 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Header2 2 7 3 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Header2 2 7 4" xfId="90" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Header2 2 7 4 2" xfId="91" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Header2 2 7 5" xfId="92" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Header2 2 7 5 2" xfId="93" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Header2 2 7 6" xfId="94" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Header2 2 7 6 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Header2 2 7 7" xfId="96" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Header2 2 8" xfId="97" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Header2 2 8 2" xfId="98" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Header2 2 9" xfId="99" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Header2 2 9 2" xfId="100" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Header2 3" xfId="101" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Header2 3 10" xfId="102" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Header2 3 10 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Header2 3 11" xfId="104" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Header2 3 11 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Header2 3 12" xfId="106" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Header2 3 2" xfId="107" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Header2 3 2 2" xfId="108" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Header2 3 2 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Header2 3 2 3" xfId="110" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Header2 3 2 3 2" xfId="111" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Header2 3 2 4" xfId="112" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Header2 3 2 4 2" xfId="113" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Header2 3 2 5" xfId="114" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Header2 3 2 5 2" xfId="115" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Header2 3 2 6" xfId="116" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Header2 3 2 6 2" xfId="117" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Header2 3 2 7" xfId="118" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Header2 3 3" xfId="119" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Header2 3 3 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Header2 3 3 2 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Header2 3 3 3" xfId="122" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Header2 3 3 3 2" xfId="123" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Header2 3 3 4" xfId="124" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Header2 3 3 4 2" xfId="125" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Header2 3 3 5" xfId="126" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Header2 3 3 5 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Header2 3 3 6" xfId="128" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Header2 3 3 6 2" xfId="129" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Header2 3 3 7" xfId="130" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Header2 3 4" xfId="131" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Header2 3 4 2" xfId="132" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Header2 3 4 2 2" xfId="133" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Header2 3 4 3" xfId="134" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Header2 3 4 3 2" xfId="135" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Header2 3 4 4" xfId="136" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Header2 3 4 4 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Header2 3 4 5" xfId="138" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Header2 3 4 5 2" xfId="139" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Header2 3 4 6" xfId="140" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Header2 3 4 6 2" xfId="141" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Header2 3 4 7" xfId="142" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Header2 3 5" xfId="143" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Header2 3 5 2" xfId="144" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Header2 3 5 2 2" xfId="145" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Header2 3 5 3" xfId="146" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Header2 3 5 3 2" xfId="147" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Header2 3 5 4" xfId="148" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Header2 3 5 4 2" xfId="149" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Header2 3 5 5" xfId="150" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Header2 3 5 5 2" xfId="151" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Header2 3 5 6" xfId="152" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Header2 3 5 6 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Header2 3 5 7" xfId="154" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Header2 3 6" xfId="155" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Header2 3 6 2" xfId="156" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Header2 3 6 2 2" xfId="157" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Header2 3 6 3" xfId="158" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Header2 3 6 3 2" xfId="159" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Header2 3 6 4" xfId="160" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Header2 3 6 4 2" xfId="161" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Header2 3 6 5" xfId="162" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Header2 3 6 5 2" xfId="163" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Header2 3 6 6" xfId="164" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Header2 3 6 6 2" xfId="165" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Header2 3 6 7" xfId="166" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Header2 3 7" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Header2 3 7 2" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Header2 3 8" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Header2 3 8 2" xfId="170" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Header2 3 9" xfId="171" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Header2 3 9 2" xfId="172" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Normal_#18-Internet" xfId="173" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="アクセント 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="アクセント 2 2" xfId="175" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="アクセント 3 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="アクセント 4 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="アクセント 5 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="アクセント 6 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="タイトル 2" xfId="180" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="チェック セル 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="どちらでもない 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="パーセント 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="ハイパーリンク 2" xfId="6" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="メモ 2" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="メモ 2 2" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="メモ 2 2 2" xfId="186" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="メモ 2 2 2 2" xfId="187" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="メモ 2 2 2 2 2" xfId="188" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="メモ 2 2 2 3" xfId="189" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="メモ 2 2 2 3 2" xfId="190" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="メモ 2 2 2 4" xfId="191" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="メモ 2 2 2 4 2" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="メモ 2 2 2 5" xfId="193" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="メモ 2 2 2 5 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="メモ 2 2 2 6" xfId="195" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="メモ 2 2 2 6 2" xfId="196" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="メモ 2 2 2 7" xfId="197" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="メモ 2 2 3" xfId="198" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="メモ 2 2 3 2" xfId="199" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="メモ 2 2 3 2 2" xfId="200" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="メモ 2 2 3 3" xfId="201" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="メモ 2 2 3 3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="メモ 2 2 3 4" xfId="203" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="メモ 2 2 3 4 2" xfId="204" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="メモ 2 2 3 5" xfId="205" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="メモ 2 2 3 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="メモ 2 2 3 6" xfId="207" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="メモ 2 2 3 6 2" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="メモ 2 2 3 7" xfId="209" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="メモ 2 2 4" xfId="210" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="メモ 2 2 4 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="メモ 2 2 4 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="メモ 2 2 4 3" xfId="213" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="メモ 2 2 4 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="メモ 2 2 4 4" xfId="215" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="メモ 2 2 4 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="メモ 2 2 4 5" xfId="217" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="メモ 2 2 4 5 2" xfId="218" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="メモ 2 2 4 6" xfId="219" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="メモ 2 2 4 6 2" xfId="220" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="メモ 2 2 4 7" xfId="221" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="メモ 2 2 5" xfId="222" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="メモ 2 2 5 2" xfId="223" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="メモ 2 2 5 2 2" xfId="224" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="メモ 2 2 5 3" xfId="225" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="メモ 2 2 5 3 2" xfId="226" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="メモ 2 2 5 4" xfId="227" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="メモ 2 2 5 4 2" xfId="228" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="メモ 2 2 5 5" xfId="229" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="メモ 2 2 5 5 2" xfId="230" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="メモ 2 2 5 6" xfId="231" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="メモ 2 2 5 6 2" xfId="232" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="メモ 2 2 5 7" xfId="233" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="メモ 2 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="メモ 2 2 6 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="メモ 2 2 6 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="メモ 2 2 6 3" xfId="237" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="メモ 2 2 6 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="メモ 2 2 6 4" xfId="239" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="メモ 2 2 6 4 2" xfId="240" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="メモ 2 2 6 5" xfId="241" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="メモ 2 2 6 5 2" xfId="242" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="メモ 2 2 6 6" xfId="243" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="メモ 2 2 7" xfId="244" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="メモ 2 2 7 2" xfId="245" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="メモ 2 2 8" xfId="246" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="メモ 2 3" xfId="247" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="リンク セル 2" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="悪い 2" xfId="249" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="計算 2" xfId="250" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="計算 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="計算 2 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="計算 2 2 2 2" xfId="253" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="計算 2 2 2 2 2" xfId="254" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="計算 2 2 2 3" xfId="255" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="計算 2 2 2 3 2" xfId="256" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="計算 2 2 2 4" xfId="257" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="計算 2 2 2 4 2" xfId="258" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="計算 2 2 2 5" xfId="259" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="計算 2 2 2 5 2" xfId="260" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="計算 2 2 2 6" xfId="261" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="計算 2 2 2 6 2" xfId="262" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="計算 2 2 2 7" xfId="263" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="計算 2 2 3" xfId="264" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="計算 2 2 3 2" xfId="265" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="計算 2 2 3 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="計算 2 2 3 3" xfId="267" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="計算 2 2 3 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="計算 2 2 3 4" xfId="269" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="計算 2 2 3 4 2" xfId="270" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="計算 2 2 3 5" xfId="271" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="計算 2 2 3 5 2" xfId="272" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="計算 2 2 3 6" xfId="273" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="計算 2 2 3 6 2" xfId="274" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="計算 2 2 3 7" xfId="275" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="計算 2 2 4" xfId="276" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="計算 2 2 4 2" xfId="277" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="計算 2 2 4 2 2" xfId="278" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="計算 2 2 4 3" xfId="279" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="計算 2 2 4 3 2" xfId="280" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="計算 2 2 4 4" xfId="281" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="計算 2 2 4 4 2" xfId="282" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="計算 2 2 4 5" xfId="283" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="計算 2 2 4 5 2" xfId="284" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="計算 2 2 4 6" xfId="285" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="計算 2 2 4 6 2" xfId="286" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="計算 2 2 4 7" xfId="287" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="計算 2 2 5" xfId="288" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="計算 2 2 5 2" xfId="289" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="計算 2 2 5 2 2" xfId="290" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="計算 2 2 5 3" xfId="291" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="計算 2 2 5 3 2" xfId="292" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="計算 2 2 5 4" xfId="293" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="計算 2 2 5 4 2" xfId="294" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="計算 2 2 5 5" xfId="295" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="計算 2 2 5 5 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="計算 2 2 5 6" xfId="297" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="計算 2 2 5 6 2" xfId="298" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="計算 2 2 5 7" xfId="299" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="計算 2 2 6" xfId="300" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="計算 2 2 6 2" xfId="301" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="計算 2 2 6 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="計算 2 2 6 3" xfId="303" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="計算 2 2 6 3 2" xfId="304" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="計算 2 2 6 4" xfId="305" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="計算 2 2 6 4 2" xfId="306" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="計算 2 2 6 5" xfId="307" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="計算 2 2 6 5 2" xfId="308" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="計算 2 2 6 6" xfId="309" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="計算 2 2 7" xfId="310" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="計算 2 2 7 2" xfId="311" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="計算 2 2 8" xfId="312" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="計算 2 3" xfId="313" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="警告文 2" xfId="314" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="見出し 1 2" xfId="315" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="見出し 2 2" xfId="316" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="見出し 3 2" xfId="317" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="見出し 4 2" xfId="318" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="集計 2" xfId="319" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="集計 2 2" xfId="320" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="集計 2 2 2" xfId="321" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="集計 2 2 2 2" xfId="322" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="集計 2 2 2 2 2" xfId="323" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="集計 2 2 2 3" xfId="324" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="集計 2 2 2 3 2" xfId="325" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="集計 2 2 2 4" xfId="326" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="集計 2 2 2 4 2" xfId="327" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="集計 2 2 2 5" xfId="328" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="集計 2 2 2 5 2" xfId="329" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="集計 2 2 2 6" xfId="330" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="集計 2 2 2 6 2" xfId="331" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="集計 2 2 2 7" xfId="332" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="集計 2 2 3" xfId="333" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="集計 2 2 3 2" xfId="334" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="集計 2 2 3 2 2" xfId="335" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="集計 2 2 3 3" xfId="336" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="集計 2 2 3 3 2" xfId="337" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="集計 2 2 3 4" xfId="338" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="集計 2 2 3 4 2" xfId="339" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="集計 2 2 3 5" xfId="340" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="集計 2 2 3 5 2" xfId="341" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="集計 2 2 3 6" xfId="342" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="集計 2 2 3 6 2" xfId="343" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="集計 2 2 3 7" xfId="344" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="集計 2 2 4" xfId="345" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="集計 2 2 4 2" xfId="346" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="集計 2 2 4 2 2" xfId="347" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="集計 2 2 4 3" xfId="348" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="集計 2 2 4 3 2" xfId="349" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="集計 2 2 4 4" xfId="350" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="集計 2 2 4 4 2" xfId="351" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="集計 2 2 4 5" xfId="352" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="集計 2 2 4 5 2" xfId="353" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="集計 2 2 4 6" xfId="354" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="集計 2 2 4 6 2" xfId="355" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="集計 2 2 4 7" xfId="356" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="集計 2 2 5" xfId="357" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="集計 2 2 5 2" xfId="358" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="集計 2 2 5 2 2" xfId="359" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="集計 2 2 5 3" xfId="360" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="集計 2 2 5 3 2" xfId="361" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="集計 2 2 5 4" xfId="362" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="集計 2 2 5 4 2" xfId="363" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="集計 2 2 5 5" xfId="364" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="集計 2 2 5 5 2" xfId="365" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="集計 2 2 5 6" xfId="366" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="集計 2 2 6" xfId="367" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="集計 2 2 6 2" xfId="368" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="集計 2 2 6 2 2" xfId="369" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="集計 2 2 6 3" xfId="370" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="集計 2 2 6 3 2" xfId="371" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="集計 2 2 6 4" xfId="372" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="集計 2 2 6 4 2" xfId="373" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="集計 2 2 6 5" xfId="374" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="集計 2 2 6 5 2" xfId="375" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="集計 2 2 6 6" xfId="376" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="集計 2 2 6 6 2" xfId="377" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="集計 2 2 6 7" xfId="378" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="集計 2 2 7" xfId="379" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="集計 2 2 7 2" xfId="380" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="集計 2 2 8" xfId="381" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="集計 2 3" xfId="382" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="出力 2" xfId="383" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="出力 2 2" xfId="384" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="出力 2 2 2" xfId="385" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="出力 2 2 2 2" xfId="386" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="出力 2 2 2 2 2" xfId="387" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="出力 2 2 2 3" xfId="388" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="出力 2 2 2 3 2" xfId="389" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="出力 2 2 2 4" xfId="390" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="出力 2 2 2 4 2" xfId="391" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="出力 2 2 2 5" xfId="392" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="出力 2 2 2 5 2" xfId="393" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="出力 2 2 2 6" xfId="394" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="出力 2 2 2 6 2" xfId="395" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="出力 2 2 2 7" xfId="396" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="出力 2 2 3" xfId="397" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="出力 2 2 3 2" xfId="398" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="出力 2 2 3 2 2" xfId="399" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="出力 2 2 3 3" xfId="400" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="出力 2 2 3 3 2" xfId="401" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="出力 2 2 3 4" xfId="402" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="出力 2 2 3 4 2" xfId="403" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="出力 2 2 3 5" xfId="404" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="出力 2 2 3 5 2" xfId="405" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="出力 2 2 3 6" xfId="406" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="出力 2 2 3 6 2" xfId="407" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="出力 2 2 3 7" xfId="408" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="出力 2 2 4" xfId="409" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="出力 2 2 4 2" xfId="410" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="出力 2 2 4 2 2" xfId="411" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="出力 2 2 4 3" xfId="412" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="出力 2 2 4 3 2" xfId="413" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="出力 2 2 4 4" xfId="414" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="出力 2 2 4 4 2" xfId="415" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="出力 2 2 4 5" xfId="416" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="出力 2 2 4 5 2" xfId="417" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="出力 2 2 4 6" xfId="418" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="出力 2 2 4 6 2" xfId="419" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="出力 2 2 4 7" xfId="420" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="出力 2 2 5" xfId="421" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="出力 2 2 5 2" xfId="422" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="出力 2 2 5 2 2" xfId="423" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="出力 2 2 5 3" xfId="424" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="出力 2 2 5 3 2" xfId="425" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="出力 2 2 5 4" xfId="426" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="出力 2 2 5 4 2" xfId="427" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="出力 2 2 5 5" xfId="428" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="出力 2 2 5 5 2" xfId="429" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="出力 2 2 5 6" xfId="430" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="出力 2 2 6" xfId="431" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="出力 2 2 6 2" xfId="432" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="出力 2 2 6 2 2" xfId="433" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="出力 2 2 6 3" xfId="434" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="出力 2 2 6 3 2" xfId="435" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="出力 2 2 6 4" xfId="436" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="出力 2 2 6 4 2" xfId="437" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="出力 2 2 6 5" xfId="438" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="出力 2 2 6 5 2" xfId="439" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="出力 2 2 6 6" xfId="440" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="出力 2 2 6 6 2" xfId="441" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="出力 2 2 6 7" xfId="442" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="出力 2 2 7" xfId="443" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="出力 2 2 7 2" xfId="444" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="出力 2 2 8" xfId="445" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="出力 2 3" xfId="446" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="説明文 2" xfId="447" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="入力 2" xfId="448" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="入力 2 2" xfId="449" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="入力 2 2 2" xfId="450" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="入力 2 2 2 2" xfId="451" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="入力 2 2 2 2 2" xfId="452" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="入力 2 2 2 3" xfId="453" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="入力 2 2 2 3 2" xfId="454" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="入力 2 2 2 4" xfId="455" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="入力 2 2 2 4 2" xfId="456" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="入力 2 2 2 5" xfId="457" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="入力 2 2 2 5 2" xfId="458" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="入力 2 2 2 6" xfId="459" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="入力 2 2 2 6 2" xfId="460" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="入力 2 2 2 7" xfId="461" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="入力 2 2 3" xfId="462" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="入力 2 2 3 2" xfId="463" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="入力 2 2 3 2 2" xfId="464" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="入力 2 2 3 3" xfId="465" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="入力 2 2 3 3 2" xfId="466" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="入力 2 2 3 4" xfId="467" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="入力 2 2 3 4 2" xfId="468" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="入力 2 2 3 5" xfId="469" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="入力 2 2 3 5 2" xfId="470" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="入力 2 2 3 6" xfId="471" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="入力 2 2 3 6 2" xfId="472" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="入力 2 2 3 7" xfId="473" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="入力 2 2 4" xfId="474" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="入力 2 2 4 2" xfId="475" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="入力 2 2 4 2 2" xfId="476" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="入力 2 2 4 3" xfId="477" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="入力 2 2 4 3 2" xfId="478" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="入力 2 2 4 4" xfId="479" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="入力 2 2 4 4 2" xfId="480" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="入力 2 2 4 5" xfId="481" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="入力 2 2 4 5 2" xfId="482" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="入力 2 2 4 6" xfId="483" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="入力 2 2 4 6 2" xfId="484" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="入力 2 2 4 7" xfId="485" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="入力 2 2 5" xfId="486" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="入力 2 2 5 2" xfId="487" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="入力 2 2 5 2 2" xfId="488" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="入力 2 2 5 3" xfId="489" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="入力 2 2 5 3 2" xfId="490" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="入力 2 2 5 4" xfId="491" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="入力 2 2 5 4 2" xfId="492" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="入力 2 2 5 5" xfId="493" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="入力 2 2 5 5 2" xfId="494" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="入力 2 2 5 6" xfId="495" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="入力 2 2 5 6 2" xfId="496" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="入力 2 2 5 7" xfId="497" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="入力 2 2 6" xfId="498" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="入力 2 2 6 2" xfId="499" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="入力 2 2 6 2 2" xfId="500" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="入力 2 2 6 3" xfId="501" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="入力 2 2 6 3 2" xfId="502" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="入力 2 2 6 4" xfId="503" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="入力 2 2 6 4 2" xfId="504" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="入力 2 2 6 5" xfId="505" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="入力 2 2 6 5 2" xfId="506" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="入力 2 2 6 6" xfId="507" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="入力 2 2 7" xfId="508" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="入力 2 2 7 2" xfId="509" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="入力 2 2 8" xfId="510" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="入力 2 3" xfId="511" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="512"/>
-    <cellStyle name="標準 11" xfId="513"/>
-    <cellStyle name="標準 11 2" xfId="514"/>
-    <cellStyle name="標準 11 2 2" xfId="515"/>
-    <cellStyle name="標準 11 2 2 2" xfId="516"/>
-    <cellStyle name="標準 11 2 3" xfId="517"/>
-    <cellStyle name="標準 11 2 3 2" xfId="518"/>
-    <cellStyle name="標準 11 2 4" xfId="519"/>
-    <cellStyle name="標準 11 2 4 2" xfId="520"/>
-    <cellStyle name="標準 11 2 5" xfId="521"/>
-    <cellStyle name="標準 11 3" xfId="522"/>
-    <cellStyle name="標準 11 3 2" xfId="523"/>
-    <cellStyle name="標準 11 3 2 2" xfId="524"/>
-    <cellStyle name="標準 11 3 3" xfId="525"/>
-    <cellStyle name="標準 11 3 3 2" xfId="526"/>
-    <cellStyle name="標準 11 3 4" xfId="527"/>
-    <cellStyle name="標準 11 4" xfId="528"/>
-    <cellStyle name="標準 11 4 2" xfId="529"/>
-    <cellStyle name="標準 11 5" xfId="530"/>
-    <cellStyle name="標準 11 5 2" xfId="531"/>
-    <cellStyle name="標準 11 6" xfId="532"/>
-    <cellStyle name="標準 11 6 2" xfId="533"/>
-    <cellStyle name="標準 11 7" xfId="534"/>
-    <cellStyle name="標準 2" xfId="2"/>
-    <cellStyle name="標準 2 2" xfId="535"/>
-    <cellStyle name="標準 2 2 2" xfId="536"/>
-    <cellStyle name="標準 2 3" xfId="537"/>
-    <cellStyle name="標準 2 4" xfId="538"/>
-    <cellStyle name="標準 2 4 2" xfId="539"/>
-    <cellStyle name="標準 2 4 2 2" xfId="540"/>
-    <cellStyle name="標準 2 4 3" xfId="541"/>
-    <cellStyle name="標準 2 4 4" xfId="542"/>
-    <cellStyle name="標準 2_フォーマット" xfId="543"/>
-    <cellStyle name="標準 3" xfId="3"/>
-    <cellStyle name="標準 3 2" xfId="544"/>
-    <cellStyle name="標準 3 2 2" xfId="545"/>
-    <cellStyle name="標準 4" xfId="546"/>
-    <cellStyle name="標準 5" xfId="547"/>
-    <cellStyle name="標準 5 2" xfId="548"/>
-    <cellStyle name="標準 5 3" xfId="549"/>
-    <cellStyle name="標準 5 4" xfId="550"/>
-    <cellStyle name="標準 6" xfId="551"/>
-    <cellStyle name="標準 6 2" xfId="552"/>
-    <cellStyle name="標準 6 3" xfId="553"/>
-    <cellStyle name="標準 7" xfId="554"/>
-    <cellStyle name="標準 8" xfId="555"/>
-    <cellStyle name="標準 9" xfId="556"/>
-    <cellStyle name="標準_~6362950" xfId="1"/>
-    <cellStyle name="標準_~6362950 2" xfId="4"/>
-    <cellStyle name="標準_画面標準" xfId="5"/>
-    <cellStyle name="未定義" xfId="557"/>
-    <cellStyle name="未定義 2" xfId="558"/>
-    <cellStyle name="良い 2" xfId="559"/>
+    <cellStyle name="標準 10" xfId="512" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="標準 11" xfId="513" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="標準 11 2" xfId="514" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="標準 11 2 2" xfId="515" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="標準 11 2 2 2" xfId="516" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="標準 11 2 3" xfId="517" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="標準 11 2 3 2" xfId="518" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="標準 11 2 4" xfId="519" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="標準 11 2 4 2" xfId="520" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="標準 11 2 5" xfId="521" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="標準 11 3" xfId="522" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="標準 11 3 2" xfId="523" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="標準 11 3 2 2" xfId="524" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="標準 11 3 3" xfId="525" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="標準 11 3 3 2" xfId="526" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="標準 11 3 4" xfId="527" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="標準 11 4" xfId="528" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="標準 11 4 2" xfId="529" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="標準 11 5" xfId="530" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="標準 11 5 2" xfId="531" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="標準 11 6" xfId="532" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="標準 11 6 2" xfId="533" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="標準 11 7" xfId="534" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="標準 2 2" xfId="535" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="標準 2 2 2" xfId="536" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="標準 2 3" xfId="537" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="標準 2 4" xfId="538" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="標準 2 4 2" xfId="539" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="標準 2 4 2 2" xfId="540" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="標準 2 4 3" xfId="541" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="標準 2 4 4" xfId="542" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="標準 2_フォーマット" xfId="543" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="標準 3 2" xfId="544" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="標準 3 2 2" xfId="545" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="標準 4" xfId="546" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="標準 5" xfId="547" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="標準 5 2" xfId="548" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="標準 5 3" xfId="549" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="標準 5 4" xfId="550" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="標準 6" xfId="551" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="標準 6 2" xfId="552" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="標準 6 3" xfId="553" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="標準 7" xfId="554" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="標準 8" xfId="555" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="標準 9" xfId="556" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="標準_~6362950" xfId="1" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="標準_~6362950 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="標準_画面標準" xfId="5" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="未定義" xfId="557" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="未定義 2" xfId="558" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="良い 2" xfId="559" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5087,7 +5070,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5151,57 +5140,11 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>122711</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6410325"/>
-          <a:ext cx="838200" cy="294162"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5243,7 +5186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5276,9 +5219,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5311,6 +5271,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5486,7 +5463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5494,14 +5471,14 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="77" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="3" width="3.625" style="23"/>
     <col min="4" max="4" width="3.625" style="23" customWidth="1"/>
     <col min="5" max="16384" width="3.625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="22"/>
@@ -5538,7 +5515,7 @@
       <c r="AH1" s="20"/>
       <c r="AI1" s="20"/>
     </row>
-    <row r="2" spans="1:35" ht="13.15" customHeight="1">
+    <row r="2" spans="1:35" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="24"/>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -5575,7 +5552,7 @@
       <c r="AH2" s="20"/>
       <c r="AI2" s="20"/>
     </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1">
+    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -5612,7 +5589,7 @@
       <c r="AH3" s="20"/>
       <c r="AI3" s="20"/>
     </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1">
+    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="20"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -5649,7 +5626,7 @@
       <c r="AH4" s="20"/>
       <c r="AI4" s="20"/>
     </row>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1">
+    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -5686,7 +5663,7 @@
       <c r="AH5" s="20"/>
       <c r="AI5" s="20"/>
     </row>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1">
+    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -5723,7 +5700,7 @@
       <c r="AH6" s="20"/>
       <c r="AI6" s="20"/>
     </row>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1">
+    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -5760,7 +5737,7 @@
       <c r="AH7" s="20"/>
       <c r="AI7" s="20"/>
     </row>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1">
+    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -5797,7 +5774,7 @@
       <c r="AH8" s="20"/>
       <c r="AI8" s="20"/>
     </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1">
+    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -5834,7 +5811,7 @@
       <c r="AH9" s="20"/>
       <c r="AI9" s="20"/>
     </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1">
+    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -5871,7 +5848,7 @@
       <c r="AH10" s="20"/>
       <c r="AI10" s="20"/>
     </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1">
+    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -5908,7 +5885,7 @@
       <c r="AH11" s="20"/>
       <c r="AI11" s="20"/>
     </row>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1">
+    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -5945,7 +5922,7 @@
       <c r="AH12" s="20"/>
       <c r="AI12" s="20"/>
     </row>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1">
+    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -5982,7 +5959,7 @@
       <c r="AH13" s="20"/>
       <c r="AI13" s="20"/>
     </row>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1">
+    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
@@ -6019,7 +5996,7 @@
       <c r="AH14" s="20"/>
       <c r="AI14" s="20"/>
     </row>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1">
+    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
@@ -6056,7 +6033,7 @@
       <c r="AH15" s="20"/>
       <c r="AI15" s="20"/>
     </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1">
+    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="20"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -6093,7 +6070,7 @@
       <c r="AH16" s="20"/>
       <c r="AI16" s="20"/>
     </row>
-    <row r="17" spans="1:35" ht="13.5" customHeight="1">
+    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
@@ -6130,7 +6107,7 @@
       <c r="AH17" s="20"/>
       <c r="AI17" s="20"/>
     </row>
-    <row r="18" spans="1:35" ht="13.5" customHeight="1">
+    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
@@ -6167,7 +6144,7 @@
       <c r="AH18" s="20"/>
       <c r="AI18" s="20"/>
     </row>
-    <row r="19" spans="1:35" ht="13.5" customHeight="1">
+    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -6204,7 +6181,7 @@
       <c r="AH19" s="20"/>
       <c r="AI19" s="20"/>
     </row>
-    <row r="20" spans="1:35" ht="13.5" customHeight="1">
+    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -6241,7 +6218,7 @@
       <c r="AH20" s="20"/>
       <c r="AI20" s="20"/>
     </row>
-    <row r="21" spans="1:35" ht="13.5" customHeight="1">
+    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -6278,7 +6255,7 @@
       <c r="AH21" s="20"/>
       <c r="AI21" s="20"/>
     </row>
-    <row r="22" spans="1:35" ht="13.5" customHeight="1">
+    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -6315,7 +6292,7 @@
       <c r="AH22" s="20"/>
       <c r="AI22" s="20"/>
     </row>
-    <row r="23" spans="1:35" ht="17.25" customHeight="1">
+    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -6334,7 +6311,7 @@
       <c r="P23" s="20"/>
       <c r="Q23" s="20"/>
       <c r="R23" s="26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
@@ -6354,7 +6331,7 @@
       <c r="AH23" s="20"/>
       <c r="AI23" s="20"/>
     </row>
-    <row r="24" spans="1:35" ht="13.5" customHeight="1">
+    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -6391,7 +6368,7 @@
       <c r="AH24" s="20"/>
       <c r="AI24" s="20"/>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -6410,7 +6387,7 @@
       <c r="P25" s="20"/>
       <c r="Q25" s="20"/>
       <c r="R25" s="27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S25" s="20"/>
       <c r="T25" s="20"/>
@@ -6430,7 +6407,7 @@
       <c r="AH25" s="20"/>
       <c r="AI25" s="20"/>
     </row>
-    <row r="26" spans="1:35" ht="13.5" customHeight="1">
+    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -6467,7 +6444,7 @@
       <c r="AH26" s="20"/>
       <c r="AI26" s="20"/>
     </row>
-    <row r="27" spans="1:35" ht="13.5" customHeight="1">
+    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -6504,7 +6481,7 @@
       <c r="AH27" s="20"/>
       <c r="AI27" s="20"/>
     </row>
-    <row r="28" spans="1:35" ht="13.5" customHeight="1">
+    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -6541,7 +6518,7 @@
       <c r="AH28" s="20"/>
       <c r="AI28" s="20"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -6578,7 +6555,7 @@
       <c r="AH29" s="20"/>
       <c r="AI29" s="20"/>
     </row>
-    <row r="30" spans="1:35" ht="13.5" customHeight="1">
+    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -6615,7 +6592,7 @@
       <c r="AH30" s="20"/>
       <c r="AI30" s="20"/>
     </row>
-    <row r="31" spans="1:35" ht="18.75" customHeight="1">
+    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -6652,7 +6629,7 @@
       <c r="AH31" s="20"/>
       <c r="AI31" s="20"/>
     </row>
-    <row r="32" spans="1:35" ht="28.5">
+    <row r="32" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -6689,7 +6666,7 @@
       <c r="AH32" s="20"/>
       <c r="AI32" s="20"/>
     </row>
-    <row r="33" spans="1:35" ht="24.75">
+    <row r="33" spans="1:35" ht="24.75" x14ac:dyDescent="0.45">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -6726,7 +6703,7 @@
       <c r="AH33" s="20"/>
       <c r="AI33" s="20"/>
     </row>
-    <row r="34" spans="1:35" ht="24.75">
+    <row r="34" spans="1:35" ht="24.75" x14ac:dyDescent="0.45">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -6763,7 +6740,7 @@
       <c r="AH34" s="20"/>
       <c r="AI34" s="20"/>
     </row>
-    <row r="35" spans="1:35" ht="13.5" customHeight="1">
+    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -6800,7 +6777,7 @@
       <c r="AH35" s="20"/>
       <c r="AI35" s="20"/>
     </row>
-    <row r="36" spans="1:35" ht="13.5" customHeight="1">
+    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -6837,7 +6814,7 @@
       <c r="AH36" s="20"/>
       <c r="AI36" s="20"/>
     </row>
-    <row r="37" spans="1:35" ht="13.5" customHeight="1">
+    <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -6874,16 +6851,12 @@
       <c r="AH37" s="20"/>
       <c r="AI37" s="20"/>
     </row>
-    <row r="38" spans="1:35" ht="13.5" customHeight="1">
+    <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="20"/>
-      <c r="B38" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="20"/>
-      <c r="E38" s="39" t="s">
-        <v>107</v>
-      </c>
+      <c r="E38" s="39"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
@@ -6895,9 +6868,7 @@
       <c r="N38" s="20"/>
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
-      <c r="S38" s="40" t="s">
-        <v>108</v>
-      </c>
+      <c r="S38" s="40"/>
       <c r="U38" s="20"/>
       <c r="V38" s="20"/>
       <c r="W38" s="20"/>
@@ -6914,11 +6885,9 @@
       <c r="AH38" s="20"/>
       <c r="AI38" s="20"/>
     </row>
-    <row r="39" spans="1:35" ht="14.25" customHeight="1">
+    <row r="39" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="20"/>
-      <c r="B39" s="20" t="s">
-        <v>114</v>
-      </c>
+      <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="39"/>
@@ -6950,7 +6919,7 @@
       <c r="AH39" s="20"/>
       <c r="AI39" s="20"/>
     </row>
-    <row r="40" spans="1:35" ht="9" customHeight="1">
+    <row r="40" spans="1:35" ht="9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -6987,494 +6956,491 @@
       <c r="AH40" s="20"/>
       <c r="AI40" s="20"/>
     </row>
-    <row r="41" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="42" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="43" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="44" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="45" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="46" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="47" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="48" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
-    <row r="514" ht="13.5" customHeight="1"/>
+    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="514" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E38" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
@@ -7482,7 +7448,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="3" customWidth="1"/>
@@ -7495,33 +7461,33 @@
     <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5">
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="22.5">
+    <row r="2" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="22.5">
+    <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="22.5">
+    <row r="4" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
@@ -7544,7 +7510,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="87.75" customHeight="1">
+    <row r="7" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="10" t="s">
         <v>96</v>
       </c>
@@ -7564,10 +7530,10 @@
         <v>102</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="87.75" customHeight="1">
+    <row r="8" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="14"/>
       <c r="C8" s="11" t="s">
         <v>5</v>
@@ -7588,7 +7554,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="87.75" customHeight="1">
+    <row r="9" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="15"/>
       <c r="C9" s="11" t="s">
         <v>5</v>
@@ -7606,10 +7572,10 @@
         <v>102</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="87.75" customHeight="1">
+    <row r="10" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="10" t="s">
         <v>14</v>
       </c>
@@ -7629,10 +7595,10 @@
         <v>103</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="87.75" customHeight="1">
+    <row r="11" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="14"/>
       <c r="C11" s="11" t="s">
         <v>5</v>
@@ -7650,10 +7616,10 @@
         <v>103</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="87.75" customHeight="1">
+    <row r="12" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="14"/>
       <c r="C12" s="11" t="s">
         <v>5</v>
@@ -7671,10 +7637,10 @@
         <v>103</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="87.75" customHeight="1">
+    <row r="13" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="14"/>
       <c r="C13" s="11" t="s">
         <v>5</v>
@@ -7692,10 +7658,10 @@
         <v>103</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="87.75" customHeight="1">
+    <row r="14" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="15"/>
       <c r="C14" s="11" t="s">
         <v>5</v>
@@ -7713,10 +7679,10 @@
         <v>60</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="87.75" customHeight="1">
+    <row r="15" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="10" t="s">
         <v>15</v>
       </c>
@@ -7736,10 +7702,10 @@
         <v>104</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="87.75" customHeight="1">
+    <row r="16" spans="1:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="14"/>
       <c r="C16" s="11" t="s">
         <v>5</v>
@@ -7760,7 +7726,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="87.75" customHeight="1">
+    <row r="17" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="14"/>
       <c r="C17" s="11" t="s">
         <v>5</v>
@@ -7769,7 +7735,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>52</v>
@@ -7781,7 +7747,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="19" customFormat="1" ht="87.75" customHeight="1">
+    <row r="18" spans="2:8" s="19" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="15"/>
       <c r="C18" s="17" t="s">
         <v>5</v>
@@ -7799,10 +7765,10 @@
         <v>104</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="87.75" customHeight="1">
+    <row r="19" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -7813,7 +7779,7 @@
         <v>19</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>77</v>
@@ -7822,10 +7788,10 @@
         <v>105</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="87.75" customHeight="1">
+    <row r="20" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="14"/>
       <c r="C20" s="11" t="s">
         <v>5</v>
@@ -7846,7 +7812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="87.75" customHeight="1">
+    <row r="21" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="14"/>
       <c r="C21" s="11" t="s">
         <v>5</v>
@@ -7864,10 +7830,10 @@
         <v>104</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="87.75" customHeight="1">
+    <row r="22" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="15"/>
       <c r="C22" s="11" t="s">
         <v>5</v>
@@ -7885,10 +7851,10 @@
         <v>105</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="87.75" customHeight="1">
+    <row r="23" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
@@ -7908,10 +7874,10 @@
         <v>105</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="87.75" customHeight="1">
+    <row r="24" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="14"/>
       <c r="C24" s="11" t="s">
         <v>5</v>
@@ -7929,10 +7895,10 @@
         <v>105</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="87.75" customHeight="1">
+    <row r="25" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="14"/>
       <c r="C25" s="11" t="s">
         <v>5</v>
@@ -7950,10 +7916,10 @@
         <v>105</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="87.75" customHeight="1">
+    <row r="26" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="15"/>
       <c r="C26" s="11" t="s">
         <v>5</v>
@@ -7971,10 +7937,10 @@
         <v>105</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="87.75" customHeight="1">
+    <row r="27" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="10" t="s">
         <v>33</v>
       </c>
@@ -7994,10 +7960,10 @@
         <v>62</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="87.75" customHeight="1">
+    <row r="28" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="14"/>
       <c r="C28" s="11" t="s">
         <v>5</v>
@@ -8015,10 +7981,10 @@
         <v>62</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="87.75" customHeight="1">
+    <row r="29" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="14"/>
       <c r="C29" s="11" t="s">
         <v>5</v>
@@ -8036,10 +8002,10 @@
         <v>62</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="87.75" customHeight="1">
+    <row r="30" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="15"/>
       <c r="C30" s="11" t="s">
         <v>5</v>
@@ -8057,10 +8023,10 @@
         <v>62</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="87.75" customHeight="1">
+    <row r="31" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="10" t="s">
         <v>97</v>
       </c>
@@ -8080,10 +8046,10 @@
         <v>61</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="87.75" customHeight="1">
+    <row r="32" spans="2:8" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="15"/>
       <c r="C32" s="11" t="s">
         <v>5</v>
@@ -8101,13 +8067,13 @@
         <v>105</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C32" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"□,■"</formula1>
     </dataValidation>
   </dataValidations>
